--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Omg-Rtn4r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.806361333333333</v>
+        <v>1.75219</v>
       </c>
       <c r="H2">
-        <v>5.419084</v>
+        <v>5.25657</v>
       </c>
       <c r="I2">
-        <v>0.1438280610620411</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J2">
-        <v>0.1547213049676104</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.664231</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.5896903116237344</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6831206522767569</v>
       </c>
       <c r="Q2">
-        <v>0.3999470649337778</v>
+        <v>0.3879529719633333</v>
       </c>
       <c r="R2">
-        <v>3.599523584404</v>
+        <v>3.49157674767</v>
       </c>
       <c r="S2">
-        <v>0.1438280610620411</v>
+        <v>0.07942837882878355</v>
       </c>
       <c r="T2">
-        <v>0.1547213049676104</v>
+        <v>0.0969336326966177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.026462666666667</v>
+        <v>1.75219</v>
       </c>
       <c r="H3">
-        <v>6.079388</v>
+        <v>5.25657</v>
       </c>
       <c r="I3">
-        <v>0.1613532081222288</v>
+        <v>0.1346950717404098</v>
       </c>
       <c r="J3">
-        <v>0.1735737709111781</v>
+        <v>0.1418982611249563</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.2214103333333333</v>
+        <v>0.1540585</v>
       </c>
       <c r="N3">
-        <v>0.664231</v>
+        <v>0.308117</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4103096883762655</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3168793477232431</v>
       </c>
       <c r="Q3">
-        <v>0.4486797745142223</v>
+        <v>0.269939763115</v>
       </c>
       <c r="R3">
-        <v>4.038117970628</v>
+        <v>1.61963857869</v>
       </c>
       <c r="S3">
-        <v>0.1613532081222288</v>
+        <v>0.05526669291162629</v>
       </c>
       <c r="T3">
-        <v>0.1735737709111781</v>
+        <v>0.04496462842833857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.997459000000001</v>
+        <v>2.026462666666667</v>
       </c>
       <c r="H4">
-        <v>8.992377000000001</v>
+        <v>6.079388</v>
       </c>
       <c r="I4">
-        <v>0.2386669312099415</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J4">
-        <v>0.2567430776494193</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.664231</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.5896903116237344</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6831206522767569</v>
       </c>
       <c r="Q4">
-        <v>0.6636683963430001</v>
+        <v>0.4486797745142223</v>
       </c>
       <c r="R4">
-        <v>5.973015567087001</v>
+        <v>4.038117970628</v>
       </c>
       <c r="S4">
-        <v>0.2386669312099415</v>
+        <v>0.09186141021829076</v>
       </c>
       <c r="T4">
-        <v>0.2567430776494193</v>
+        <v>0.1121067851112465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.6527075</v>
+        <v>2.026462666666667</v>
       </c>
       <c r="H5">
-        <v>5.305415</v>
+        <v>6.079388</v>
       </c>
       <c r="I5">
-        <v>0.2112167533976597</v>
+        <v>0.1557790731975008</v>
       </c>
       <c r="J5">
-        <v>0.1514759195824857</v>
+        <v>0.1641097875428132</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.2214103333333333</v>
+        <v>0.1540585</v>
       </c>
       <c r="N5">
-        <v>0.664231</v>
+        <v>0.308117</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.4103096883762655</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.3168793477232431</v>
       </c>
       <c r="Q5">
-        <v>0.5873368518108334</v>
+        <v>0.3121937987326667</v>
       </c>
       <c r="R5">
-        <v>3.524021110865</v>
+        <v>1.873162792396</v>
       </c>
       <c r="S5">
-        <v>0.2112167533976597</v>
+        <v>0.06391766297921</v>
       </c>
       <c r="T5">
-        <v>0.1514759195824857</v>
+        <v>0.05200300243156665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.076181333333333</v>
+        <v>4.488144</v>
       </c>
       <c r="H6">
-        <v>9.228543999999999</v>
+        <v>13.464432</v>
       </c>
       <c r="I6">
-        <v>0.2449350462081291</v>
+        <v>0.3450144550883694</v>
       </c>
       <c r="J6">
-        <v>0.2634859268893066</v>
+        <v>0.3634650518941472</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,332 @@
         <v>0.664231</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.5896903116237344</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.6831206522767569</v>
       </c>
       <c r="Q6">
-        <v>0.6810983344071111</v>
+        <v>0.9937214590880001</v>
       </c>
       <c r="R6">
-        <v>6.129885009664</v>
+        <v>8.943493131792</v>
       </c>
       <c r="S6">
-        <v>0.2449350462081291</v>
+        <v>0.2034516815357535</v>
       </c>
       <c r="T6">
-        <v>0.2634859268893066</v>
+        <v>0.2482904833297351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.488144</v>
+      </c>
+      <c r="H7">
+        <v>13.464432</v>
+      </c>
+      <c r="I7">
+        <v>0.3450144550883694</v>
+      </c>
+      <c r="J7">
+        <v>0.3634650518941472</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.1540585</v>
+      </c>
+      <c r="N7">
+        <v>0.308117</v>
+      </c>
+      <c r="O7">
+        <v>0.4103096883762655</v>
+      </c>
+      <c r="P7">
+        <v>0.3168793477232431</v>
+      </c>
+      <c r="Q7">
+        <v>0.6914367324239999</v>
+      </c>
+      <c r="R7">
+        <v>4.148620394543999</v>
+      </c>
+      <c r="S7">
+        <v>0.1415627735526159</v>
+      </c>
+      <c r="T7">
+        <v>0.1151745685644121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.981064</v>
+      </c>
+      <c r="H8">
+        <v>3.962128</v>
+      </c>
+      <c r="I8">
+        <v>0.152289168185153</v>
+      </c>
+      <c r="J8">
+        <v>0.1069555001749241</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.2214103333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.664231</v>
+      </c>
+      <c r="O8">
+        <v>0.5896903116237344</v>
+      </c>
+      <c r="P8">
+        <v>0.6831206522767569</v>
+      </c>
+      <c r="Q8">
+        <v>0.4386280405946667</v>
+      </c>
+      <c r="R8">
+        <v>2.631768243568</v>
+      </c>
+      <c r="S8">
+        <v>0.08980344704402218</v>
+      </c>
+      <c r="T8">
+        <v>0.07306351104408093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.981064</v>
+      </c>
+      <c r="H9">
+        <v>3.962128</v>
+      </c>
+      <c r="I9">
+        <v>0.152289168185153</v>
+      </c>
+      <c r="J9">
+        <v>0.1069555001749241</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.1540585</v>
+      </c>
+      <c r="N9">
+        <v>0.308117</v>
+      </c>
+      <c r="O9">
+        <v>0.4103096883762655</v>
+      </c>
+      <c r="P9">
+        <v>0.3168793477232431</v>
+      </c>
+      <c r="Q9">
+        <v>0.305199748244</v>
+      </c>
+      <c r="R9">
+        <v>1.220798992976</v>
+      </c>
+      <c r="S9">
+        <v>0.06248572114113082</v>
+      </c>
+      <c r="T9">
+        <v>0.03389198913084316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.760707333333334</v>
+      </c>
+      <c r="H10">
+        <v>8.282122000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.2122222317885668</v>
+      </c>
+      <c r="J10">
+        <v>0.2235713992631593</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2214103333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.664231</v>
+      </c>
+      <c r="O10">
+        <v>0.5896903116237344</v>
+      </c>
+      <c r="P10">
+        <v>0.6831206522767569</v>
+      </c>
+      <c r="Q10">
+        <v>0.6112491309091113</v>
+      </c>
+      <c r="R10">
+        <v>5.501242178182001</v>
+      </c>
+      <c r="S10">
+        <v>0.1251453939968844</v>
+      </c>
+      <c r="T10">
+        <v>0.1527262400950766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.760707333333334</v>
+      </c>
+      <c r="H11">
+        <v>8.282122000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2122222317885668</v>
+      </c>
+      <c r="J11">
+        <v>0.2235713992631593</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.1540585</v>
+      </c>
+      <c r="N11">
+        <v>0.308117</v>
+      </c>
+      <c r="O11">
+        <v>0.4103096883762655</v>
+      </c>
+      <c r="P11">
+        <v>0.3168793477232431</v>
+      </c>
+      <c r="Q11">
+        <v>0.4253104307123334</v>
+      </c>
+      <c r="R11">
+        <v>2.551862584274</v>
+      </c>
+      <c r="S11">
+        <v>0.08707683779168245</v>
+      </c>
+      <c r="T11">
+        <v>0.07084515916808266</v>
       </c>
     </row>
   </sheetData>
